--- a/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -60,9 +60,6 @@
     <t>配偶姓名/負責人姓名</t>
   </si>
   <si>
-    <t>企金別</t>
-  </si>
-  <si>
     <t>員工代號</t>
   </si>
   <si>
@@ -520,13 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-0:個金
-1:企金
-2:企金自然人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>若此客戶為員工
 才放該員工的員工代號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -882,6 +872,17 @@
   <si>
     <t>0.已完成建檔 1.未完成建檔
 (2021/08/13上DB)by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企金別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+0:個金
+1:企金
+2:企金自然人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1468,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1485,14 +1486,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1502,10 +1503,10 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1513,14 +1514,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1528,7 +1529,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="15"/>
@@ -1539,14 +1540,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1554,11 +1555,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1567,11 +1568,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1580,25 +1581,25 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1606,13 +1607,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="18">
         <v>32</v>
@@ -1626,13 +1627,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="18">
         <v>10</v>
@@ -1646,20 +1647,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1668,13 +1669,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="18">
         <v>4</v>
@@ -1688,13 +1689,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="18">
         <v>100</v>
@@ -1708,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="18">
         <v>8</v>
@@ -1728,20 +1729,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -1750,20 +1751,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="18">
         <v>2</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1772,20 +1773,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="18">
         <v>6</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1794,20 +1795,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="18">
         <v>2</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1816,20 +1817,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>198</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="18">
         <v>2</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1838,13 +1839,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="18">
         <v>10</v>
@@ -1858,13 +1859,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="18">
         <v>100</v>
@@ -1878,13 +1879,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="18">
         <v>3</v>
@@ -1898,13 +1899,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="18">
         <v>3</v>
@@ -1918,20 +1919,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="18">
         <v>2</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1940,20 +1941,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="18">
         <v>3</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1962,13 +1963,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="18">
         <v>40</v>
@@ -1982,13 +1983,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="18">
         <v>5</v>
@@ -2002,13 +2003,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="18">
         <v>5</v>
@@ -2022,13 +2023,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="18">
         <v>5</v>
@@ -2042,13 +2043,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="18">
         <v>5</v>
@@ -2062,13 +2063,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="18">
         <v>5</v>
@@ -2082,13 +2083,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="18">
         <v>5</v>
@@ -2102,13 +2103,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="18">
         <v>5</v>
@@ -2122,13 +2123,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="18">
         <v>3</v>
@@ -2142,13 +2143,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="18">
         <v>3</v>
@@ -2162,20 +2163,20 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="18">
         <v>2</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2184,20 +2185,20 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="18">
         <v>3</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2206,13 +2207,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="18">
         <v>40</v>
@@ -2226,13 +2227,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="18">
         <v>5</v>
@@ -2246,13 +2247,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="18">
         <v>5</v>
@@ -2266,13 +2267,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="18">
         <v>5</v>
@@ -2286,13 +2287,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="18">
         <v>5</v>
@@ -2306,13 +2307,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="18">
         <v>5</v>
@@ -2326,13 +2327,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="18">
         <v>5</v>
@@ -2346,13 +2347,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="18">
         <v>5</v>
@@ -2366,20 +2367,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="18">
         <v>1</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2388,20 +2389,20 @@
         <v>39</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="24">
         <v>6</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2410,13 +2411,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="24">
         <v>50</v>
@@ -2430,20 +2431,20 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="24">
         <v>1</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2452,20 +2453,20 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="24">
         <v>1</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2474,13 +2475,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="24">
         <v>60</v>
@@ -2494,13 +2495,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="24">
         <v>8</v>
@@ -2514,13 +2515,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="24">
         <v>16</v>
@@ -2534,13 +2535,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="D54" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="24">
         <v>20</v>
@@ -2554,13 +2555,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="D55" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="24">
         <v>2</v>
@@ -2574,13 +2575,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="D56" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E56" s="24">
         <v>9</v>
@@ -2594,20 +2595,20 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="24">
         <v>6</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2616,13 +2617,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="24">
         <v>20</v>
@@ -2636,13 +2637,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="D59" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="24">
         <v>3</v>
@@ -2656,13 +2657,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>60</v>
-      </c>
       <c r="D60" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="24">
         <v>3</v>
@@ -2676,13 +2677,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="D61" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="18">
         <v>100</v>
@@ -2696,13 +2697,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E62" s="24">
         <v>3</v>
@@ -2716,13 +2717,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E63" s="24">
         <v>3</v>
@@ -2736,13 +2737,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E64" s="24">
         <v>1</v>
@@ -2756,13 +2757,13 @@
         <v>57</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="18">
         <v>50</v>
@@ -2776,20 +2777,20 @@
         <v>58</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" s="23">
         <v>1</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2798,20 +2799,20 @@
         <v>59</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="25">
         <v>6</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2820,20 +2821,20 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="25">
         <v>1</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2842,20 +2843,20 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="25">
         <v>1</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2864,20 +2865,20 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="25">
         <v>1</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2886,20 +2887,20 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E71" s="25">
         <v>1</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2908,20 +2909,20 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" s="30">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2930,13 +2931,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
@@ -2948,13 +2949,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="D74" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="18">
         <v>6</v>
@@ -2968,13 +2969,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="D75" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
@@ -2985,13 +2986,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" s="18">
         <v>6</v>
@@ -3002,7 +3003,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D83" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
@@ -3057,92 +3058,92 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10392"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="212">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -883,6 +883,20 @@
 0:個金
 1:企金
 2:企金自然人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自然人
+2.法人
+2021.10.15 by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuscCd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1467,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1643,7 +1657,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <f t="shared" ref="A11:A75" si="0">A10+1</f>
+        <f t="shared" ref="A11:A76" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -2361,102 +2375,102 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
+    <row r="46" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="25">
+        <v>1</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="18">
+      <c r="D47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="18">
         <v>1</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18" t="s">
+      <c r="F47" s="18"/>
+      <c r="G47" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B47" s="24" t="s">
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="24">
+      <c r="D48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="24">
         <v>6</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24" t="s">
+      <c r="F48" s="24"/>
+      <c r="G48" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B48" s="24" t="s">
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="24">
+      <c r="D49" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="24">
         <v>50</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B49" s="24" t="s">
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="24">
-        <v>1</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>10</v>
@@ -2466,28 +2480,30 @@
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="24">
+        <v>1</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="24">
-        <v>60</v>
-      </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -2495,16 +2511,16 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E52" s="24">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -2515,16 +2531,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -2535,16 +2551,16 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E54" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -2555,16 +2571,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E55" s="24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
@@ -2575,16 +2591,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E56" s="24">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
@@ -2595,21 +2611,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E57" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F57" s="24"/>
-      <c r="G57" s="24" t="s">
-        <v>166</v>
-      </c>
+      <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
@@ -2617,19 +2631,21 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="24">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="G58" s="24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
@@ -2637,16 +2653,16 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="24">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
@@ -2657,10 +2673,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>10</v>
@@ -2671,45 +2687,45 @@
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="24">
+        <v>3</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D62" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E62" s="18">
         <v>100</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="24">
-        <v>3</v>
-      </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
@@ -2717,10 +2733,10 @@
         <v>55</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>100</v>
@@ -2737,104 +2753,102 @@
         <v>56</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="E64" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="24">
+        <v>1</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="18">
+      <c r="D66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="18">
         <v>50</v>
       </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-    </row>
-    <row r="66" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="23">
-        <v>1</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22" t="s">
-        <v>157</v>
-      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="23">
+        <v>1</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C68" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="25">
+      <c r="D68" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="25">
         <v>6</v>
-      </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="18">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="25">
-        <v>1</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2843,10 +2857,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>10</v>
@@ -2865,10 +2879,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>10</v>
@@ -2881,67 +2895,71 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="E71" s="25">
         <v>1</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="30">
+        <v>186</v>
+      </c>
+      <c r="E72" s="25">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="30">
+        <v>1</v>
+      </c>
+      <c r="F73" s="29"/>
+      <c r="G73" s="28" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
@@ -2949,17 +2967,15 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="18">
-        <v>6</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
     </row>
@@ -2969,48 +2985,68 @@
         <v>67</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E75" s="18">
+        <v>6</v>
+      </c>
       <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
-        <f t="shared" ref="A76" si="1">A75+1</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <f t="shared" ref="A77" si="1">A76+1</f>
+        <v>69</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C77" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="18">
+      <c r="D77" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="26"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D83" s="6" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="26"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>custNoRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo &gt;= ,AND CustNo &lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -898,6 +894,10 @@
   <si>
     <t>身份別</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1483,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -1507,7 +1507,7 @@
         <v>122</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1517,7 +1517,7 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>66</v>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>82</v>
@@ -1621,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>10</v>
@@ -1641,10 +1641,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>100</v>
@@ -1683,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -1729,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="18">
         <v>8</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1787,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -1831,10 +1831,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>10</v>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>10</v>
@@ -1896,7 +1896,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>10</v>
@@ -1916,7 +1916,7 @@
         <v>86</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>10</v>
@@ -1936,7 +1936,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>10</v>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1958,7 +1958,7 @@
         <v>88</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>10</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1977,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>23</v>
@@ -2160,7 +2160,7 @@
         <v>104</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>10</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>34</v>
@@ -2381,10 +2381,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>210</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>10</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2406,7 +2406,7 @@
         <v>96</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>10</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2447,7 +2447,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>42</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2634,7 +2634,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>10</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2733,10 +2733,10 @@
         <v>55</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>100</v>
@@ -2753,10 +2753,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>100</v>
@@ -2773,13 +2773,13 @@
         <v>57</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E65" s="24">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>10</v>
@@ -2813,10 +2813,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>156</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>72</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2835,10 +2835,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>10</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2857,10 +2857,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>10</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2879,10 +2879,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>10</v>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2901,10 +2901,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>10</v>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2923,20 +2923,20 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72" s="25">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2945,10 +2945,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>100</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2967,13 +2967,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D84" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -3068,9 +3068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3097,40 +3097,40 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>128</v>
@@ -3173,13 +3173,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="213">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -888,16 +888,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CuscCd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>身份別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>custNoRange</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuscCd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1483,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2381,13 +2385,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>210</v>
-      </c>
       <c r="D46" s="25" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="E46" s="25">
         <v>1</v>
@@ -3068,9 +3072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3124,7 +3128,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>130</v>

--- a/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -15,7 +15,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -601,10 +601,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>開放查詢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>共用代碼檔
 1:小學以下
 2:國中
@@ -901,6 +897,10 @@
   </si>
   <si>
     <t>CuscCd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開放查詢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1511,7 @@
         <v>122</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1521,7 +1521,7 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>66</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>82</v>
@@ -1625,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>10</v>
@@ -1645,10 +1645,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>10</v>
@@ -1668,7 +1668,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>100</v>
@@ -1687,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1813,10 +1813,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -1835,10 +1835,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>10</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1900,7 +1900,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>10</v>
@@ -1940,7 +1940,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>10</v>
@@ -1962,7 +1962,7 @@
         <v>88</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>10</v>
@@ -2164,7 +2164,7 @@
         <v>104</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>10</v>
@@ -2385,20 +2385,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E46" s="25">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
         <v>96</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>10</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2451,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>42</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2638,7 +2638,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>10</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2757,10 +2757,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>100</v>
@@ -2777,13 +2777,13 @@
         <v>57</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E65" s="24">
         <v>1</v>
@@ -2797,10 +2797,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>10</v>
@@ -2817,10 +2817,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>72</v>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2839,10 +2839,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>10</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2861,10 +2861,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>10</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2883,10 +2883,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>10</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2905,10 +2905,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>10</v>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2927,20 +2927,20 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E72" s="25">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2949,10 +2949,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>100</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3043,7 +3043,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D84" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -3101,10 +3101,10 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,24 +3117,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3153,7 +3153,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="214">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -901,6 +901,11 @@
   </si>
   <si>
     <t>開放查詢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:不開放 
+2:開放</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1487,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2771,7 +2776,7 @@
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2789,7 +2794,9 @@
         <v>1</v>
       </c>
       <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="G65" s="24" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="18">

--- a/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -15,7 +15,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -256,9 +256,6 @@
     <t>年收入</t>
   </si>
   <si>
-    <t>IncomeDataDate</t>
-  </si>
-  <si>
     <t>護照號碼</t>
   </si>
   <si>
@@ -676,10 +673,6 @@
   </si>
   <si>
     <t>介紹人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introducer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -906,6 +899,14 @@
   <si>
     <t>1:不開放 
 2:開放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introducer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomeDataDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1492,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1509,14 +1510,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1526,10 +1527,10 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1537,14 +1538,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1563,14 +1564,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1578,11 +1579,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1591,11 +1592,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1604,7 +1605,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
@@ -1630,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>10</v>
@@ -1650,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>10</v>
@@ -1670,20 +1671,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1692,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -1712,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>3</v>
@@ -1738,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="18">
         <v>8</v>
@@ -1752,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>5</v>
@@ -1765,7 +1766,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -1774,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
@@ -1787,7 +1788,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1796,7 +1797,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1809,7 +1810,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1818,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -1831,7 +1832,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1840,10 +1841,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>194</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>10</v>
@@ -1853,7 +1854,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1865,7 +1866,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>10</v>
@@ -1902,10 +1903,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>10</v>
@@ -1922,10 +1923,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>10</v>
@@ -1942,10 +1943,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>10</v>
@@ -1955,7 +1956,7 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1964,10 +1965,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>10</v>
@@ -1977,7 +1978,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1986,7 +1987,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>23</v>
@@ -2006,7 +2007,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>24</v>
@@ -2026,7 +2027,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>25</v>
@@ -2046,7 +2047,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>26</v>
@@ -2066,7 +2067,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>27</v>
@@ -2086,7 +2087,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>28</v>
@@ -2106,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>29</v>
@@ -2126,7 +2127,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>30</v>
@@ -2146,7 +2147,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>31</v>
@@ -2166,10 +2167,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>10</v>
@@ -2186,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>32</v>
@@ -2199,7 +2200,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2208,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>33</v>
@@ -2221,7 +2222,7 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2230,7 +2231,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>34</v>
@@ -2250,7 +2251,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>35</v>
@@ -2270,7 +2271,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>36</v>
@@ -2290,7 +2291,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>37</v>
@@ -2310,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>38</v>
@@ -2330,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>39</v>
@@ -2350,7 +2351,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>40</v>
@@ -2370,7 +2371,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>41</v>
@@ -2390,20 +2391,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C46" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>210</v>
       </c>
       <c r="E46" s="25">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2412,10 +2413,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>10</v>
@@ -2425,7 +2426,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2434,7 +2435,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>9</v>
@@ -2447,7 +2448,7 @@
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2456,7 +2457,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>42</v>
@@ -2476,7 +2477,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>43</v>
@@ -2489,7 +2490,7 @@
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2498,7 +2499,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>44</v>
@@ -2511,7 +2512,7 @@
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2520,7 +2521,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>45</v>
@@ -2540,7 +2541,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>46</v>
@@ -2560,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>47</v>
@@ -2626,7 +2627,7 @@
         <v>53</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="24">
         <v>9</v>
@@ -2640,10 +2641,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>10</v>
@@ -2653,7 +2654,7 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2662,10 +2663,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>10</v>
@@ -2682,10 +2683,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>10</v>
@@ -2702,10 +2703,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>10</v>
@@ -2722,10 +2723,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>19</v>
@@ -2742,13 +2743,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" s="24">
         <v>3</v>
@@ -2762,13 +2763,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="D64" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="24">
         <v>3</v>
@@ -2782,20 +2783,20 @@
         <v>57</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" s="24">
         <v>1</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2804,10 +2805,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>10</v>
@@ -2824,20 +2825,20 @@
         <v>59</v>
       </c>
       <c r="B67" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>154</v>
-      </c>
       <c r="D67" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="23">
         <v>1</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2846,10 +2847,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>10</v>
@@ -2859,7 +2860,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2868,10 +2869,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>10</v>
@@ -2881,7 +2882,7 @@
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2890,10 +2891,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>10</v>
@@ -2903,7 +2904,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2912,10 +2913,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>10</v>
@@ -2925,7 +2926,7 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2934,20 +2935,20 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E72" s="25">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2956,20 +2957,20 @@
         <v>65</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E73" s="30">
         <v>1</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2978,13 +2979,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -2996,10 +2997,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>10</v>
@@ -3016,13 +3017,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="D76" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
@@ -3033,10 +3034,10 @@
         <v>69</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>10</v>
@@ -3050,7 +3051,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D84" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -3105,92 +3106,92 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
